--- a/Hx.BackAdmin/App_Data/财务日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/财务日报表模板.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="财务" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>出纳</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,7 +239,15 @@
     <t>其他大额款项</t>
   </si>
   <si>
-    <t>13、本日预计支付款项指填报当天需要支付的款项。（如：6月19日填写18日当天的报表，该栏目就要填写19日要支付的大额金额，如没有无需填写，只是用于知道今天剩余资金的用途）</t>
+    <t>资金余额与现金校对数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、资金余额与现金校对数：资金余额-POS-银行余额-现金合计-留存现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、本日预计支付款项指填报当天需要支付的款项。（如：6月19日填写18日当天的报表，该栏目就要填写19日要支付的大额金额，如没有无需填写，只是用于知道今天剩余资金的用途）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,8 +255,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -477,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +595,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -622,15 +667,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,11 +676,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,13 +983,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AK53"/>
+  <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE34" sqref="AE34"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35:AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -973,80 +1006,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -1159,10 +1192,10 @@
       <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45"/>
+      <c r="B4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="57"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
@@ -1205,8 +1238,8 @@
       <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1247,8 +1280,8 @@
       <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1292,7 +1325,7 @@
       <c r="B7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1333,10 +1366,10 @@
       <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="46"/>
+      <c r="B8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="58"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1377,8 +1410,8 @@
       <c r="A9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1422,7 +1455,7 @@
       <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1463,10 +1496,10 @@
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="46"/>
+      <c r="B11" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="58"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1507,8 +1540,8 @@
       <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1552,7 +1585,7 @@
       <c r="B13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1595,10 +1628,10 @@
       <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="46"/>
+      <c r="B14" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="58"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1641,8 +1674,8 @@
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1684,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="46"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="7">
         <f t="shared" ref="D16:AH16" si="1">D4+D5+D8+D10+D11+D12</f>
         <v>0</v>
@@ -1819,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="47"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="29">
         <f t="shared" ref="D17:AH17" si="2">D7+D9+D13+D14+D15</f>
         <v>0</v>
@@ -2802,182 +2835,278 @@
       <c r="AI34" s="10"/>
     </row>
     <row r="35" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="49">
-        <f>SUM(D36:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="49">
-        <f t="shared" ref="E35:AH35" si="5">SUM(E36:E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="49">
+      <c r="A35" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="63">
+        <f>C18-C19-C20-C33-C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="63">
+        <f t="shared" ref="D35:AH35" si="5">D18-D19-D20-D33-D34</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="49">
+      <c r="F35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H35" s="49">
+      <c r="G35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I35" s="49">
+      <c r="H35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J35" s="49">
+      <c r="I35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="49">
+      <c r="J35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="49">
+      <c r="K35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M35" s="49">
+      <c r="L35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="49">
+      <c r="M35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="49">
+      <c r="N35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P35" s="49">
+      <c r="O35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="49">
+      <c r="P35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R35" s="49">
+      <c r="Q35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S35" s="49">
+      <c r="R35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T35" s="49">
+      <c r="S35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="49">
+      <c r="T35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V35" s="49">
+      <c r="U35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W35" s="49">
+      <c r="V35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X35" s="49">
+      <c r="W35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="49">
+      <c r="X35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="49">
+      <c r="Y35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="49">
+      <c r="Z35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="49">
+      <c r="AA35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="49">
+      <c r="AB35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="49">
+      <c r="AC35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="49">
+      <c r="AD35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF35" s="49">
+      <c r="AE35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="49">
+      <c r="AF35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH35" s="49">
+      <c r="AG35" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="50"/>
+      <c r="AH35" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="43"/>
     </row>
     <row r="36" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="37">
+        <f>SUM(D37:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="37">
+        <f t="shared" ref="E36:AH36" si="6">SUM(E37:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="38"/>
     </row>
     <row r="37" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3013,10 +3142,10 @@
     </row>
     <row r="38" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3052,10 +3181,10 @@
     </row>
     <row r="39" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="53"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3090,440 +3219,490 @@
       <c r="AI39" s="10"/>
     </row>
     <row r="40" spans="1:35" ht="17.25" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
+      <c r="A40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="10"/>
     </row>
     <row r="41" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="48"/>
+      <c r="AG41" s="48"/>
+      <c r="AH41" s="48"/>
+      <c r="AI41" s="48"/>
+    </row>
+    <row r="42" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-    </row>
-    <row r="42" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="36" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+    </row>
+    <row r="43" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-    </row>
-    <row r="43" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="36" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+    </row>
+    <row r="44" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-    </row>
-    <row r="44" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+    </row>
+    <row r="45" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-    </row>
-    <row r="45" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="36" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+    </row>
+    <row r="46" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-    </row>
-    <row r="46" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="36" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+    </row>
+    <row r="47" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-    </row>
-    <row r="47" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="37" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+    </row>
+    <row r="48" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-    </row>
-    <row r="48" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="37" t="s">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="48"/>
+      <c r="AF48" s="48"/>
+      <c r="AG48" s="48"/>
+      <c r="AH48" s="48"/>
+      <c r="AI48" s="48"/>
+    </row>
+    <row r="49" spans="1:36" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="36"/>
-      <c r="AH48" s="36"/>
-      <c r="AI48" s="36"/>
-    </row>
-    <row r="49" spans="1:36" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="37" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="48"/>
+      <c r="AB49" s="48"/>
+      <c r="AC49" s="48"/>
+      <c r="AD49" s="48"/>
+      <c r="AE49" s="48"/>
+      <c r="AF49" s="48"/>
+      <c r="AG49" s="48"/>
+      <c r="AH49" s="48"/>
+      <c r="AI49" s="48"/>
+    </row>
+    <row r="50" spans="1:36" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
-    </row>
-    <row r="50" spans="1:36" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="37" t="s">
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="48"/>
+      <c r="AB50" s="48"/>
+      <c r="AC50" s="48"/>
+      <c r="AD50" s="48"/>
+      <c r="AE50" s="48"/>
+      <c r="AF50" s="48"/>
+      <c r="AG50" s="48"/>
+      <c r="AH50" s="48"/>
+      <c r="AI50" s="48"/>
+    </row>
+    <row r="51" spans="1:36" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
-      <c r="AF50" s="36"/>
-      <c r="AG50" s="36"/>
-      <c r="AH50" s="36"/>
-      <c r="AI50" s="36"/>
-    </row>
-    <row r="51" spans="1:36" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="32" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="48"/>
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="48"/>
+      <c r="AF51" s="48"/>
+      <c r="AG51" s="48"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="48"/>
+      <c r="AJ51" s="20"/>
+    </row>
+    <row r="52" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
-      <c r="AH51" s="20"/>
-      <c r="AJ51" s="20"/>
-    </row>
-    <row r="52" spans="1:36" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="19"/>
     </row>
     <row r="53" spans="1:36" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B53" s="35"/>
+    </row>
+    <row r="54" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="2"/>
+    </row>
+    <row r="55" spans="1:36" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:AI2"/>
-    <mergeCell ref="A41:S41"/>
     <mergeCell ref="A42:S42"/>
     <mergeCell ref="A43:S43"/>
-    <mergeCell ref="T40:AI40"/>
+    <mergeCell ref="A44:S44"/>
+    <mergeCell ref="T41:AI41"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C4:C17"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A45:S45"/>
-    <mergeCell ref="A40:S40"/>
-    <mergeCell ref="A50:AI50"/>
-    <mergeCell ref="A47:AI47"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="A41:S41"/>
+    <mergeCell ref="A51:AI51"/>
     <mergeCell ref="A48:AI48"/>
     <mergeCell ref="A49:AI49"/>
-    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="A50:AI50"/>
+    <mergeCell ref="A47:S47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/财务日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/财务日报表模板.xlsx
@@ -631,53 +631,53 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,16 +986,16 @@
   <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35:AH35"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="21" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
     <col min="4" max="12" width="7.625" style="3" customWidth="1"/>
     <col min="13" max="30" width="7.625" style="3" hidden="1" customWidth="1"/>
@@ -1006,80 +1006,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -2839,131 +2839,131 @@
         <v>56</v>
       </c>
       <c r="B35" s="42"/>
-      <c r="C35" s="63">
+      <c r="C35" s="48">
         <f>C18-C19-C20-C33-C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="48">
         <f t="shared" ref="D35:AH35" si="5">D18-D19-D20-D33-D34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I35" s="63">
+      <c r="I35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J35" s="63">
+      <c r="J35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="63">
+      <c r="L35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M35" s="63">
+      <c r="M35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="63">
+      <c r="N35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P35" s="63">
+      <c r="P35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="63">
+      <c r="Q35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R35" s="63">
+      <c r="R35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S35" s="63">
+      <c r="S35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T35" s="63">
+      <c r="T35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U35" s="63">
+      <c r="U35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V35" s="63">
+      <c r="V35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W35" s="63">
+      <c r="W35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X35" s="63">
+      <c r="X35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="63">
+      <c r="Y35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="63">
+      <c r="Z35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="63">
+      <c r="AA35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="63">
+      <c r="AB35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="63">
+      <c r="AC35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="63">
+      <c r="AD35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="63">
+      <c r="AE35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF35" s="63">
+      <c r="AF35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="63">
+      <c r="AG35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH35" s="63">
+      <c r="AH35" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3258,110 +3258,110 @@
       <c r="AI40" s="10"/>
     </row>
     <row r="41" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
-      <c r="AG41" s="48"/>
-      <c r="AH41" s="48"/>
-      <c r="AI41" s="48"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
     </row>
     <row r="42" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
     </row>
     <row r="44" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
     </row>
     <row r="45" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="17" t="s">
@@ -3387,206 +3387,206 @@
       <c r="S45" s="17"/>
     </row>
     <row r="46" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
     </row>
     <row r="47" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
     </row>
     <row r="48" spans="1:35" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
-      <c r="AF48" s="48"/>
-      <c r="AG48" s="48"/>
-      <c r="AH48" s="48"/>
-      <c r="AI48" s="48"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
     </row>
     <row r="49" spans="1:36" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="48"/>
-      <c r="AG49" s="48"/>
-      <c r="AH49" s="48"/>
-      <c r="AI49" s="48"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="53"/>
     </row>
     <row r="50" spans="1:36" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="48"/>
-      <c r="AF50" s="48"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="48"/>
-      <c r="AI50" s="48"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="53"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="53"/>
     </row>
     <row r="51" spans="1:36" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="48"/>
-      <c r="AF51" s="48"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="48"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
       <c r="AJ51" s="20"/>
     </row>
     <row r="52" spans="1:36" ht="20.100000000000001" customHeight="1">
@@ -3684,6 +3684,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="A41:S41"/>
+    <mergeCell ref="A51:AI51"/>
+    <mergeCell ref="A48:AI48"/>
+    <mergeCell ref="A49:AI49"/>
+    <mergeCell ref="A50:AI50"/>
+    <mergeCell ref="A47:S47"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:AI2"/>
     <mergeCell ref="A42:S42"/>
@@ -3696,13 +3703,6 @@
     <mergeCell ref="C4:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="A46:S46"/>
-    <mergeCell ref="A41:S41"/>
-    <mergeCell ref="A51:AI51"/>
-    <mergeCell ref="A48:AI48"/>
-    <mergeCell ref="A49:AI49"/>
-    <mergeCell ref="A50:AI50"/>
-    <mergeCell ref="A47:S47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
